--- a/spreadsheets/programs.xlsx
+++ b/spreadsheets/programs.xlsx
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -652,6 +652,9 @@
       <c r="H4" t="s">
         <v>33</v>
       </c>
+      <c r="I4">
+        <v>59.94</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>32</v>
       </c>

--- a/spreadsheets/programs.xlsx
+++ b/spreadsheets/programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -124,16 +124,49 @@
   </si>
   <si>
     <t>recording_fps</t>
+  </si>
+  <si>
+    <t>2014-12-09T08:30:00-06:00</t>
+  </si>
+  <si>
+    <t>2014-12-09_WFLDDT_Good_Day_Chicago</t>
+  </si>
+  <si>
+    <t>06:30:00</t>
+  </si>
+  <si>
+    <t>00:27:44</t>
+  </si>
+  <si>
+    <t>Good Day Chicago</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
@@ -157,14 +190,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -494,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -665,8 +706,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>59.94</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/spreadsheets/programs.xlsx
+++ b/spreadsheets/programs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="17240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25360" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -139,6 +139,24 @@
   </si>
   <si>
     <t>Good Day Chicago</t>
+  </si>
+  <si>
+    <t>2014-12-18T09:00:00-06:00</t>
+  </si>
+  <si>
+    <t>2014-12-18T09:30:00-06:00</t>
+  </si>
+  <si>
+    <t>00:39:19</t>
+  </si>
+  <si>
+    <t>00:19:25</t>
+  </si>
+  <si>
+    <t>2014-12-18_WFLDDT_Good-Day-Chicago_1</t>
+  </si>
+  <si>
+    <t>2014-12-18_WFLDDT_Good-Day-Chicago_2</t>
   </si>
 </sst>
 </file>
@@ -151,7 +169,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,8 +207,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -201,11 +232,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -535,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -744,6 +789,82 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6">
+        <v>59.94</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>59.94</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
